--- a/biology/Histoire de la zoologie et de la botanique/Louis_Athanase_Chaubard/Louis_Athanase_Chaubard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Athanase_Chaubard/Louis_Athanase_Chaubard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Athanase Chaubard est un botaniste français né en 1781 à Agen et décédé en 1854 à Agen.
 Il participa à l'écriture du volume consacré à la flore découverte dans le Péloponnèse par l'expédition scientifique de Morée.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Éléments de Géologie mis à la portée de tout le monde et offrant la concordance des faits géologiques avec les faits historiques tels qu'ils se trouvent dans la Bible, les traditions égyptiennes et les fables de la Grèce., Risler, 1833
 Notice géologique sur les terrains du département de Lot-et-Garonne (Ancien Agenais), impr. H. Fournier, 1830
